--- a/Links_youtube.xlsx
+++ b/Links_youtube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Simulation\2021_Simulation_of_Robotics_Systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DB34A6-1B9E-4AA3-9F72-870F13CABAE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5537B5DF-AAF0-4876-9603-0A653D7AFC87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1668" yWindow="2820" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Lecture 1&amp;2</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Лекция 2&amp;3</t>
+  </si>
+  <si>
+    <t>https://youtu.be/z1VFQ0a8zMY</t>
+  </si>
+  <si>
+    <t>Lecture 3&amp;4</t>
   </si>
 </sst>
 </file>
@@ -372,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,6 +430,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Links_youtube.xlsx
+++ b/Links_youtube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Simulation\2021_Simulation_of_Robotics_Systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5537B5DF-AAF0-4876-9603-0A653D7AFC87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B954E868-EE41-49AB-A58E-2FC2D64FEF41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1668" yWindow="2820" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Lecture 1&amp;2</t>
   </si>
@@ -61,16 +61,36 @@
   </si>
   <si>
     <t>Lecture 3&amp;4</t>
+  </si>
+  <si>
+    <t>Построение графика</t>
+  </si>
+  <si>
+    <t>https://youtu.be/CX_eGBXXHlw</t>
+  </si>
+  <si>
+    <t>Plots</t>
+  </si>
+  <si>
+    <t>https://youtu.be/l0YJAY44Zbw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,13 +113,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -378,15 +401,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
     <col min="2" max="2" width="36.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -434,11 +457,30 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{D519F846-7F81-4392-8D5F-DA86F66803F5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Links_youtube.xlsx
+++ b/Links_youtube.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Simulation\2021_Simulation_of_Robotics_Systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B954E868-EE41-49AB-A58E-2FC2D64FEF41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D60467A-4BF6-4928-A436-44008F2BBD67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1668" yWindow="2820" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="3288" windowWidth="30960" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Lecture 1&amp;2</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>https://youtu.be/l0YJAY44Zbw</t>
+  </si>
+  <si>
+    <t>Лекция 4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/pwpuLsnDxpg</t>
   </si>
 </sst>
 </file>
@@ -401,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,6 +483,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{D519F846-7F81-4392-8D5F-DA86F66803F5}"/>

--- a/Links_youtube.xlsx
+++ b/Links_youtube.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Simulation\2021_Simulation_of_Robotics_Systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D60467A-4BF6-4928-A436-44008F2BBD67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DBCE067-EB2F-47AC-A2DE-1D0035CB84E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="3288" windowWidth="30960" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="612" windowWidth="13056" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Lecture 1&amp;2</t>
   </si>
@@ -79,6 +80,12 @@
   </si>
   <si>
     <t>https://youtu.be/pwpuLsnDxpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/NtVpk2mr_kM</t>
+  </si>
+  <si>
+    <t>Practice tasks 3, 4, 5, and 6</t>
   </si>
 </sst>
 </file>
@@ -407,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,10 +498,20 @@
         <v>17</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{D519F846-7F81-4392-8D5F-DA86F66803F5}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{8782C733-5FBA-49C1-87DC-39A7529922E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Links_youtube.xlsx
+++ b/Links_youtube.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Simulation\2021_Simulation_of_Robotics_Systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DBCE067-EB2F-47AC-A2DE-1D0035CB84E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FBB863-81EC-4FB4-83A4-640BE2FE3F73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="612" windowWidth="13056" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Lecture 1&amp;2</t>
   </si>
@@ -86,6 +85,12 @@
   </si>
   <si>
     <t>Practice tasks 3, 4, 5, and 6</t>
+  </si>
+  <si>
+    <t>https://youtu.be/oC9N6lz70kY</t>
+  </si>
+  <si>
+    <t>Практические задания 3, 4, 5 и 6</t>
   </si>
 </sst>
 </file>
@@ -414,15 +419,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="36.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -506,12 +511,21 @@
         <v>18</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{D519F846-7F81-4392-8D5F-DA86F66803F5}"/>
     <hyperlink ref="B10" r:id="rId2" xr:uid="{8782C733-5FBA-49C1-87DC-39A7529922E0}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{F5CF7F0A-A66B-49EE-9A64-DA70DF3DEDEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>